--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F958E-040D-45FB-B32B-23B1CA42820A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51184460-C334-4EDE-A56D-A065C77A194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">HTML 기초 태그 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쇼핑몰 만들기 2(반응형)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,11 +417,6 @@
   </si>
   <si>
     <t>Javascript 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>margin, padding, position
-flex 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,7 +449,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flex 6</t>
+    <t xml:space="preserve">HTML 기초 태그(Input) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin, padding(복습)
+position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,38 +1037,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,25 +1112,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,51 +1457,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="K2" s="49" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1556,30 +1556,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="51"/>
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="K6" s="39" t="s">
+      <c r="I6" s="51"/>
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1629,8 +1629,8 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>78</v>
+      <c r="D8" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
@@ -1641,19 +1641,19 @@
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="40" t="s">
         <v>53</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="36" t="s">
         <v>58</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1662,37 +1662,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>74</v>
+      <c r="G9" s="38" t="s">
+        <v>73</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="41"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1703,11 +1703,11 @@
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1722,30 +1722,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="46"/>
+      <c r="F11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="K11" s="39" t="s">
+      <c r="I11" s="46"/>
+      <c r="K11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1789,37 +1789,37 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>76</v>
+      <c r="B13" s="59" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>82</v>
+      <c r="D13" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>73</v>
-      </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="36" t="s">
         <v>58</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1827,27 +1827,27 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="43"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="43"/>
+      <c r="I14" s="41"/>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1860,16 +1860,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="35"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="43"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1884,30 +1884,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="F16" s="39" t="s">
+      <c r="D16" s="46"/>
+      <c r="F16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="K16" s="39" t="s">
+      <c r="I16" s="46"/>
+      <c r="K16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1951,31 +1951,31 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>77</v>
+      <c r="B18" s="59" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>81</v>
+      <c r="D18" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="36" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="40" t="s">
         <v>57</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="48" t="s">
         <v>63</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -1989,27 +1989,27 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="43"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="43"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="54"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2041,37 +2041,37 @@
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="55"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="37"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="F21" s="39" t="s">
+      <c r="D21" s="46"/>
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="K21" s="39" t="s">
+      <c r="I21" s="46"/>
+      <c r="K21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2115,25 +2115,25 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>83</v>
+      <c r="B23" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>84</v>
+      <c r="D23" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="36" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="40" t="s">
         <v>56</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2153,29 +2153,29 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="43"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="41"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="36" t="s">
         <v>61</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2195,45 +2195,45 @@
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="43"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="35"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="F26" s="39" t="s">
+      <c r="D26" s="46"/>
+      <c r="F26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="K26" s="39" t="s">
+      <c r="I26" s="46"/>
+      <c r="K26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="47"/>
+      <c r="M26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2277,26 +2277,26 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="40" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="34" t="s">
-        <v>75</v>
+      <c r="G28" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>75</v>
+      <c r="I28" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
@@ -2315,29 +2315,29 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="43"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="41"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="34" t="s">
+      <c r="L29" s="36" t="s">
         <v>61</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="N29" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2357,74 +2357,22 @@
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="59"/>
+      <c r="I30" s="42"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="39"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="59"/>
+      <c r="N30" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L13:L14"/>
@@ -2438,6 +2386,58 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,51 +2475,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
-      <c r="K2" s="49" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="52"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2574,30 +2574,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="51"/>
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="K6" s="39" t="s">
+      <c r="I6" s="51"/>
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="45"/>
+      <c r="N6" s="51"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2653,25 +2653,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2679,49 +2679,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="40" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="43"/>
+      <c r="I9" s="41"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="43"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2736,30 +2736,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="46"/>
+      <c r="F11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="K11" s="39" t="s">
+      <c r="I11" s="46"/>
+      <c r="K11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2827,13 +2827,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="36" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="40" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2841,13 +2841,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="40" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2865,21 +2865,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="43"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2895,37 +2895,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="F16" s="39" t="s">
+      <c r="D16" s="46"/>
+      <c r="F16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="K16" s="39" t="s">
+      <c r="I16" s="46"/>
+      <c r="K16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2981,19 +2981,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="40" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="36" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3007,31 +3007,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="41"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="44"/>
+      <c r="L19" s="38"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3039,53 +3039,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="43"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="43"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="37"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="F21" s="39" t="s">
+      <c r="D21" s="46"/>
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="K21" s="39" t="s">
+      <c r="I21" s="46"/>
+      <c r="K21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="41" t="s">
+      <c r="L21" s="47"/>
+      <c r="M21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3141,25 +3141,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="40" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="36" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="40" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3167,83 +3167,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="41"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="44"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="43"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="43"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="35"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="43"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="35"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="F26" s="39" t="s">
+      <c r="D26" s="46"/>
+      <c r="F26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="K26" s="39" t="s">
+      <c r="I26" s="46"/>
+      <c r="K26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="41" t="s">
+      <c r="L26" s="47"/>
+      <c r="M26" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3299,7 +3299,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="36" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3311,13 +3311,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="34" t="s">
+      <c r="L28" s="36" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="40" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3325,19 +3325,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="40" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3347,25 +3347,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="44"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="37"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="58"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="42"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="58"/>
+      <c r="L30" s="39"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3385,6 +3385,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="B29:B30"/>
@@ -3401,53 +3448,6 @@
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51184460-C334-4EDE-A56D-A065C77A194E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD472DF-D20E-49F9-B38A-092528BEC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="87">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이트 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +221,6 @@
     <t>1. React를 위한 프로그래밍 기초
 2. Git
 3. React 입문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. HTML&amp;CSS기초 입문
-2. 싱글페이지 실습
-3. 간단한 반응형 학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Javascript를 이용한 동적 사이트 구현
-2. 홈페이지 제작, 네이버에 사이트 등록하기
-3. 실무형 미니 프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,6 +443,28 @@
   </si>
   <si>
     <t>flex 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개월 과정은 같은 인원 쭉 감~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex 6, 가상선택자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flex 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. HTML&amp;CSS기초 입문
+2. Flex 레이아웃 연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Javascript를 이용한 동적 사이트 구현
+2. 홈페이지 제작, 네이버에 사이트 등록하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1042,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1432,10 +1441,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1457,58 +1466,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="F2" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="G3" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="L3" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1520,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -1532,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -1556,30 +1565,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="52"/>
+      <c r="F6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="K6" s="44" t="s">
+      <c r="I6" s="52"/>
+      <c r="K6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1629,32 +1638,32 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>76</v>
+      <c r="D8" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>53</v>
+      <c r="I8" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>58</v>
+      <c r="L8" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="40" t="s">
-        <v>58</v>
+      <c r="N8" s="41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1662,90 +1671,90 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="44"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>73</v>
+      <c r="G9" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="F11" s="44" t="s">
+      <c r="D11" s="47"/>
+      <c r="F11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="K11" s="44" t="s">
+      <c r="I11" s="47"/>
+      <c r="K11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="34" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1789,125 +1798,125 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>83</v>
+      <c r="B13" s="60" t="s">
+        <v>80</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>84</v>
+      <c r="D13" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>71</v>
+      <c r="G13" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>72</v>
+      <c r="I13" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="36" t="s">
-        <v>58</v>
+      <c r="L13" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="40" t="s">
-        <v>58</v>
+      <c r="N13" s="41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="59"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="42"/>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="43"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="37"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="43"/>
+      <c r="I15" s="44"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="F16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="F16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="K16" s="44" t="s">
+      <c r="I16" s="47"/>
+      <c r="K16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="34" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1951,66 +1960,66 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>80</v>
+      <c r="B18" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>75</v>
+      <c r="D18" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>50</v>
+      <c r="G18" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="43"/>
+      <c r="I19" s="44"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="40" t="s">
-        <v>61</v>
+      <c r="N19" s="41" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2018,60 +2027,60 @@
         <v>2</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="50"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="F21" s="44" t="s">
+      <c r="D21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="K21" s="44" t="s">
+      <c r="I21" s="47"/>
+      <c r="K21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="34" t="s">
+      <c r="L21" s="48"/>
+      <c r="M21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2115,68 +2124,68 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>79</v>
+      <c r="B23" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>81</v>
+      <c r="D23" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>55</v>
+      <c r="G23" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="40" t="s">
-        <v>56</v>
+      <c r="I23" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="41"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="36" t="s">
-        <v>61</v>
+      <c r="L24" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="40" t="s">
-        <v>61</v>
+      <c r="N24" s="41" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2190,50 +2199,50 @@
         <v>2</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="44"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="43"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="F26" s="44" t="s">
+      <c r="D26" s="47"/>
+      <c r="F26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="34" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="K26" s="44" t="s">
+      <c r="I26" s="47"/>
+      <c r="K26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="34" t="s">
+      <c r="L26" s="48"/>
+      <c r="M26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2277,68 +2286,68 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>44</v>
+      <c r="B28" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>44</v>
+      <c r="D28" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
-        <v>74</v>
+      <c r="G28" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="40" t="s">
-        <v>74</v>
+      <c r="I28" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="41"/>
+      <c r="I29" s="42"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="36" t="s">
-        <v>61</v>
+      <c r="L29" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="40" t="s">
-        <v>61</v>
+      <c r="N29" s="41" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2346,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>2</v>
@@ -2357,22 +2366,39 @@
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="42"/>
+      <c r="N30" s="43"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L13:L14"/>
@@ -2426,6 +2452,7 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="N24:N25"/>
+    <mergeCell ref="B33:D35"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="G28:G30"/>
@@ -2475,58 +2502,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="F2" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -2538,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -2550,7 +2577,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -2574,30 +2601,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="52"/>
+      <c r="F6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="K6" s="44" t="s">
+      <c r="I6" s="52"/>
+      <c r="K6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="46"/>
+      <c r="M6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2653,25 +2680,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="41" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="37" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2679,49 +2706,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>52</v>
+      <c r="B9" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>52</v>
+      <c r="D9" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="43"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2736,30 +2763,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="F11" s="44" t="s">
+      <c r="D11" s="47"/>
+      <c r="F11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="34" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="K11" s="44" t="s">
+      <c r="I11" s="47"/>
+      <c r="K11" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="34" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="46"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2827,13 +2854,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="37" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="40" t="s">
+      <c r="N13" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2841,14 +2868,14 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>52</v>
+      <c r="B14" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>52</v>
+      <c r="D14" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>1</v>
@@ -2865,21 +2892,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2895,37 +2922,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="43"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="F16" s="44" t="s">
+      <c r="D16" s="47"/>
+      <c r="F16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="K16" s="44" t="s">
+      <c r="I16" s="47"/>
+      <c r="K16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="34" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="46"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2981,19 +3008,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3007,31 +3034,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="41"/>
+      <c r="I19" s="42"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="39"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="42" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3039,53 +3066,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="44"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="F21" s="44" t="s">
+      <c r="D21" s="47"/>
+      <c r="F21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="34" t="s">
+      <c r="G21" s="46"/>
+      <c r="H21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="K21" s="44" t="s">
+      <c r="I21" s="47"/>
+      <c r="K21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="34" t="s">
+      <c r="L21" s="48"/>
+      <c r="M21" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="46"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3141,25 +3168,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="37" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="37" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="40" t="s">
+      <c r="N23" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3167,83 +3194,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="41"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="39"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="41"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="44"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="43"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="34" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="F26" s="44" t="s">
+      <c r="D26" s="47"/>
+      <c r="F26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="34" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="K26" s="44" t="s">
+      <c r="I26" s="47"/>
+      <c r="K26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="34" t="s">
+      <c r="L26" s="48"/>
+      <c r="M26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3299,7 +3326,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="37" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3311,13 +3338,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="37" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3325,19 +3352,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3347,25 +3374,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="38"/>
+      <c r="L29" s="39"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="43"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3375,7 +3402,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="40"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD472DF-D20E-49F9-B38A-092528BEC7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6103B-4F67-4402-8DD2-5B127B795988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="85">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,34 +232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 실습</t>
-  </si>
-  <si>
-    <t>쇼핑몰 만들기 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 사이트 만들기 1
-with javascript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화 사이트 만들기 2
-with javascript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기초
-카카오 지도 사용하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>React 프로그래밍
@@ -392,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쇼핑몰 만들기 3(반응형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현 평가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +434,26 @@
   <si>
     <t>1. Javascript를 이용한 동적 사이트 구현
 2. 홈페이지 제작, 네이버에 사이트 등록하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OT, 중간 평가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flex 반응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑몰 만들기 1(반응형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 문제풀기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,86 +1032,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,7 +1439,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1466,58 +1461,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="F2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="G3" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1529,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -1541,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -1565,30 +1560,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="45" t="s">
+      <c r="D6" s="46"/>
+      <c r="F6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="K6" s="45" t="s">
+      <c r="I6" s="46"/>
+      <c r="K6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1638,32 +1633,32 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>73</v>
+      <c r="D8" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>50</v>
+      <c r="I8" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="37" t="s">
-        <v>55</v>
+      <c r="L8" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="41" t="s">
-        <v>55</v>
+      <c r="N8" s="37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1671,37 +1666,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="38"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>70</v>
+      <c r="G9" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="38"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1712,49 +1707,51 @@
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="43"/>
+      <c r="F11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="K11" s="45" t="s">
+      <c r="I11" s="43"/>
+      <c r="K11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="35" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1798,65 +1795,65 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>80</v>
+      <c r="B13" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>81</v>
+      <c r="D13" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>68</v>
+      <c r="G13" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>69</v>
+      <c r="I13" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="37" t="s">
-        <v>55</v>
+      <c r="L13" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
-        <v>55</v>
+      <c r="N13" s="37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="38"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="44"/>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1869,54 +1866,54 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="38"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="43"/>
+      <c r="F16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="K16" s="45" t="s">
+      <c r="I16" s="43"/>
+      <c r="K16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="35" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1960,66 +1957,66 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>77</v>
+      <c r="B18" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>72</v>
+      <c r="D18" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="35" t="s">
         <v>47</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>60</v>
-      </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="38"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="38"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="41" t="s">
-        <v>58</v>
+      <c r="N19" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2038,49 +2035,49 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>48</v>
+      <c r="G20" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="51"/>
+      <c r="L20" s="56"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="F21" s="45" t="s">
+      <c r="D21" s="43"/>
+      <c r="F21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="43"/>
+      <c r="K21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="35" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="47"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2124,68 +2121,68 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="60" t="s">
-        <v>76</v>
+      <c r="B23" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>78</v>
+      <c r="D23" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>52</v>
+      <c r="G23" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
-        <v>53</v>
+      <c r="I23" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="60"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="38"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="38"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="37" t="s">
-        <v>58</v>
+      <c r="L24" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="41" t="s">
-        <v>58</v>
+      <c r="N24" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2204,45 +2201,49 @@
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="F26" s="45" t="s">
+      <c r="D26" s="43"/>
+      <c r="F26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="35" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="K26" s="45" t="s">
+      <c r="I26" s="43"/>
+      <c r="K26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="35" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2286,68 +2287,68 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>83</v>
+      <c r="B28" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>84</v>
+      <c r="D28" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>71</v>
+      <c r="G28" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="41" t="s">
-        <v>71</v>
+      <c r="I28" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="38"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="39"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="44"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="37" t="s">
-        <v>58</v>
+      <c r="L29" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="41" t="s">
-        <v>58</v>
+      <c r="N29" s="37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2366,60 +2367,74 @@
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="62" t="s">
+        <v>84</v>
+      </c>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="43"/>
+      <c r="I30" s="61"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="40"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="43"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B33:D35"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="I13:I15"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
@@ -2432,39 +2447,27 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="B33:D35"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2502,58 +2505,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="K2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="F2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -2565,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -2577,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -2601,30 +2604,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="45" t="s">
+      <c r="D6" s="46"/>
+      <c r="F6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="K6" s="45" t="s">
+      <c r="I6" s="46"/>
+      <c r="K6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="52"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2680,25 +2683,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="37" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="35" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="37" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2706,49 +2709,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>49</v>
+      <c r="B9" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>49</v>
+      <c r="D9" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="44"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="38"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="38"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2763,30 +2766,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="43"/>
+      <c r="F11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="K11" s="45" t="s">
+      <c r="I11" s="43"/>
+      <c r="K11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="35" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2854,13 +2857,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="35" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2868,14 +2871,14 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>49</v>
+      <c r="B14" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>49</v>
+      <c r="D14" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>1</v>
@@ -2892,21 +2895,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="38"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2922,37 +2925,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="F16" s="45" t="s">
+      <c r="D16" s="43"/>
+      <c r="F16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="K16" s="45" t="s">
+      <c r="I16" s="43"/>
+      <c r="K16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="35" t="s">
+      <c r="L16" s="41"/>
+      <c r="M16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3008,19 +3011,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="35" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="35" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3034,31 +3037,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="44"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3066,53 +3069,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="38"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="38"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="F21" s="45" t="s">
+      <c r="D21" s="43"/>
+      <c r="F21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="35" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="43"/>
+      <c r="K21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="35" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="47"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3168,25 +3171,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="35" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="37" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="35" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="37" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3194,83 +3197,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="37" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="44"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="38"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="38"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="F26" s="45" t="s">
+      <c r="D26" s="43"/>
+      <c r="F26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="35" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="K26" s="45" t="s">
+      <c r="I26" s="43"/>
+      <c r="K26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="35" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3326,7 +3329,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="35" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3338,13 +3341,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="35" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="37" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3352,19 +3355,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="37" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="39"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3374,25 +3377,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="39"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="44"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="61"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="40"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3405,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="40"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3412,21 +3415,38 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K6:L6"/>
@@ -3443,38 +3463,21 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D6103B-4F67-4402-8DD2-5B127B795988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0DC2F-5E4D-490E-8F14-FFFF6834A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="87">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구현 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 응용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flex 반응형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반응형 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -454,6 +446,22 @@
   </si>
   <si>
     <t>Javascript 문제풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 만들기 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스 만들기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 반응형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,6 +1043,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,80 +1064,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,7 +1447,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1461,51 +1469,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1560,30 +1568,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="F6" s="40" t="s">
+      <c r="D6" s="54"/>
+      <c r="F6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="K6" s="40" t="s">
+      <c r="I6" s="54"/>
+      <c r="K6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1633,31 +1641,31 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>66</v>
+      <c r="D8" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="37" t="s">
-        <v>81</v>
+      <c r="I8" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="39" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="41" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1666,37 +1674,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="44"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>63</v>
+      <c r="G9" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="38"/>
+      <c r="I9" s="44"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1707,12 +1715,12 @@
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1728,30 +1736,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="48"/>
+      <c r="F11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1795,37 +1803,37 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>74</v>
-      </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>83</v>
+      <c r="G13" s="39" t="s">
+        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>62</v>
+      <c r="I13" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="39" t="s">
         <v>49</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="41" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1833,27 +1841,27 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="44"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="42"/>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="36"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="38"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1866,16 +1874,18 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="38"/>
+      <c r="I15" s="44"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1890,30 +1900,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="48"/>
+      <c r="F16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="K16" s="40" t="s">
+      <c r="I16" s="48"/>
+      <c r="K16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="43"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1957,31 +1967,31 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>70</v>
+      <c r="B18" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>65</v>
+      <c r="D18" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>47</v>
-      </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="54" t="s">
+      <c r="L18" s="51" t="s">
         <v>54</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -1995,27 +2005,27 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="44"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="38"/>
+      <c r="I19" s="44"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N19" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2036,48 +2046,48 @@
         <v>2</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="56"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="F21" s="40" t="s">
+      <c r="D21" s="48"/>
+      <c r="F21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="K21" s="40" t="s">
+      <c r="I21" s="48"/>
+      <c r="K21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="42" t="s">
+      <c r="L21" s="49"/>
+      <c r="M21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2121,25 +2131,25 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>69</v>
+      <c r="B23" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>71</v>
+      <c r="D23" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="41" t="s">
         <v>47</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2159,29 +2169,29 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="44"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="38"/>
+      <c r="I24" s="44"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="39" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2202,48 +2212,48 @@
         <v>2</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="F26" s="40" t="s">
+      <c r="D26" s="48"/>
+      <c r="F26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42" t="s">
+      <c r="G26" s="47"/>
+      <c r="H26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="K26" s="40" t="s">
+      <c r="I26" s="48"/>
+      <c r="K26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="42" t="s">
+      <c r="L26" s="49"/>
+      <c r="M26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="59"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2287,26 +2297,26 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>77</v>
-      </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="37" t="s">
-        <v>64</v>
+      <c r="I28" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
@@ -2325,29 +2335,29 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="44"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="42"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="39" t="s">
         <v>52</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="41" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2367,41 +2377,94 @@
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="62" t="s">
-        <v>84</v>
+      <c r="G30" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="43"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="60"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="61"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
     <mergeCell ref="B33:D35"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="B28:B29"/>
@@ -2415,59 +2478,6 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2505,51 +2515,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2604,30 +2614,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="F6" s="40" t="s">
+      <c r="D6" s="54"/>
+      <c r="F6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="K6" s="40" t="s">
+      <c r="I6" s="54"/>
+      <c r="K6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41" t="s">
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2683,25 +2693,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="41" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="39" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2709,49 +2719,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="42"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="44"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2766,30 +2776,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="48"/>
+      <c r="F11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="K11" s="40" t="s">
+      <c r="I11" s="48"/>
+      <c r="K11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42" t="s">
+      <c r="L11" s="47"/>
+      <c r="M11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="43"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2857,13 +2867,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="39" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2871,13 +2881,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2895,21 +2905,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="44"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2925,37 +2935,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="36"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="48"/>
+      <c r="F16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="K16" s="40" t="s">
+      <c r="I16" s="48"/>
+      <c r="K16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="43"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3011,19 +3021,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3037,31 +3047,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="42"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="42" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3069,53 +3079,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="44"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="38"/>
+      <c r="I20" s="44"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="36"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="F21" s="40" t="s">
+      <c r="D21" s="48"/>
+      <c r="F21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42" t="s">
+      <c r="G21" s="47"/>
+      <c r="H21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="K21" s="40" t="s">
+      <c r="I21" s="48"/>
+      <c r="K21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="42" t="s">
+      <c r="L21" s="49"/>
+      <c r="M21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="48"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3171,25 +3181,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="39" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="39" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="N23" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3197,83 +3207,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="44"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="44"/>
+      <c r="N24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="44"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="38"/>
+      <c r="I25" s="44"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="F26" s="40" t="s">
+      <c r="D26" s="48"/>
+      <c r="F26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42" t="s">
+      <c r="G26" s="47"/>
+      <c r="H26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="K26" s="40" t="s">
+      <c r="I26" s="48"/>
+      <c r="K26" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="42" t="s">
+      <c r="L26" s="49"/>
+      <c r="M26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="59"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3329,7 +3339,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3341,13 +3351,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="39" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3355,19 +3365,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3377,25 +3387,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="50"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="38"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="43"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="60"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3405,7 +3415,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="60"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3415,6 +3425,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="B29:B30"/>
@@ -3431,53 +3488,6 @@
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0DC2F-5E4D-490E-8F14-FFFF6834A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F613F-9396-45C0-AE43-237F93A21428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -267,28 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프론트 엔드1(24.02.05 ~ 24.02.29)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>프론트 엔드2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (24.03.01 ~ 24.03.29)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">프론트 엔드3 </t>
     </r>
@@ -462,6 +440,28 @@
   </si>
   <si>
     <t xml:space="preserve"> 반응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트 엔드1(24.02.06 ~ 24.03.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프론트 엔드2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (24.03.12 ~ 24.04.05)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,85 +1046,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,51 +1469,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="K2" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="B3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1568,30 +1568,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="46"/>
+      <c r="F6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="K6" s="46" t="s">
+      <c r="I6" s="46"/>
+      <c r="K6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1641,31 +1641,31 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>65</v>
+      <c r="D8" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="41" t="s">
-        <v>84</v>
+      <c r="I8" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="36" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1674,37 +1674,37 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="39"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>83</v>
+      <c r="G9" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="39"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1715,12 +1715,12 @@
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1736,30 +1736,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="44"/>
+      <c r="F11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="37" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="44"/>
+      <c r="K11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="37" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="48"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1803,37 +1803,37 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>72</v>
+      <c r="B13" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>73</v>
+      <c r="D13" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>86</v>
+      <c r="G13" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>81</v>
+      <c r="I13" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="36" t="s">
         <v>49</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1841,27 +1841,27 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="39"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="57"/>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1874,18 +1874,18 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="39"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1900,30 +1900,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="44"/>
+      <c r="F16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="37" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="K16" s="46" t="s">
+      <c r="I16" s="44"/>
+      <c r="K16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="37" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="48"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1967,31 +1967,31 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>69</v>
+      <c r="B18" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>64</v>
+      <c r="D18" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>62</v>
+      <c r="G18" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="38" t="s">
         <v>47</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="54" t="s">
         <v>54</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -2005,27 +2005,27 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="39"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="39"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2046,48 +2046,48 @@
         <v>2</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="53"/>
+      <c r="L20" s="56"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="F21" s="46" t="s">
+      <c r="D21" s="44"/>
+      <c r="F21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="K21" s="46" t="s">
+      <c r="I21" s="44"/>
+      <c r="K21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="37" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="48"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2131,25 +2131,25 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>70</v>
-      </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="36" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="38" t="s">
         <v>47</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2169,29 +2169,29 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="39"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="37"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="44"/>
+      <c r="I24" s="39"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="36" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="41" t="s">
+      <c r="N24" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2212,48 +2212,48 @@
         <v>2</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="44"/>
+      <c r="F26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="37" t="s">
+      <c r="G26" s="42"/>
+      <c r="H26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="K26" s="46" t="s">
+      <c r="I26" s="44"/>
+      <c r="K26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2297,26 +2297,26 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>75</v>
+      <c r="B28" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>76</v>
+      <c r="D28" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="36" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="41" t="s">
-        <v>63</v>
+      <c r="I28" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
@@ -2335,29 +2335,29 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="39"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="40"/>
+      <c r="G29" s="37"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="42"/>
+      <c r="I29" s="57"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="36" t="s">
         <v>52</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="41" t="s">
+      <c r="N29" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2378,40 +2378,92 @@
         <v>2</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="43"/>
+      <c r="I30" s="61"/>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="43"/>
+      <c r="N30" s="61"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="B33" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="B33:D35"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L13:L14"/>
@@ -2426,58 +2478,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B33:D35"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2515,51 +2515,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="K2" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2614,30 +2614,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="46"/>
+      <c r="F6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="K6" s="46" t="s">
+      <c r="I6" s="46"/>
+      <c r="K6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
+      <c r="L6" s="42"/>
+      <c r="M6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2693,25 +2693,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="38" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2719,49 +2719,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="57"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="40"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="39"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="39"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2776,30 +2776,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="F11" s="46" t="s">
+      <c r="D11" s="44"/>
+      <c r="F11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="37" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="44"/>
+      <c r="K11" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="37" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="48"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2867,13 +2867,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="36" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2881,13 +2881,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2905,21 +2905,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="50"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="39"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2935,37 +2935,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="44"/>
+      <c r="F16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="37" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="K16" s="46" t="s">
+      <c r="I16" s="44"/>
+      <c r="K16" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="37" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="48"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3021,19 +3021,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="38" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="36" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3047,31 +3047,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="57"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="50"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="57" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3079,53 +3079,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="39"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="39"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="37" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="F21" s="46" t="s">
+      <c r="D21" s="44"/>
+      <c r="F21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="K21" s="46" t="s">
+      <c r="I21" s="44"/>
+      <c r="K21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="37" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="48"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3181,25 +3181,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="36" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="38" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="36" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="38" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3207,83 +3207,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="50"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="57"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="57"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="39"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="37"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="39"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="40"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="44"/>
+      <c r="F26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="37" t="s">
+      <c r="G26" s="42"/>
+      <c r="H26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="K26" s="46" t="s">
+      <c r="I26" s="44"/>
+      <c r="K26" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="49"/>
-      <c r="M26" s="37" t="s">
+      <c r="L26" s="58"/>
+      <c r="M26" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="38"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3339,7 +3339,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="36" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3351,13 +3351,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="36" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="38" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3365,19 +3365,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="38" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3387,25 +3387,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="50"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="44"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="61"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="62"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3425,21 +3425,38 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K6:L6"/>
@@ -3456,38 +3473,21 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F613F-9396-45C0-AE43-237F93A21428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C9DA7-5CAF-44EB-A2C4-B434D26354E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="103">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,12 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. React를 위한 프로그래밍 기초
-2. Git
-3. React 입문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CSS 실습(Box 배치)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,24 +258,6 @@
     <t xml:space="preserve">1. React 핵심 기능과 구현 실습으로 기초다지기
 2. 실무에서 자주사용하는 비즈니스 해결하기
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">프론트 엔드3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(24.04.01 ~ 24.04.30)</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 응용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flex 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6개월 과정은 같은 인원 쭉 감~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flex 6, 가상선택자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,15 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Javascript를 이용한 동적 사이트 구현
-2. 홈페이지 제작, 네이버에 사이트 등록하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OT, 중간 평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반응형 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +395,6 @@
   </si>
   <si>
     <t>복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 반응형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -461,6 +416,118 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (24.03.12 ~ 24.04.05)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차(3월 12일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회차(3월 14일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회차(3월 19일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회차(3월 20일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회차(3월 22일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차 총 복습 &amp; OT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 효과 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 효과 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6회차(3월 26일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(3월 28일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(4월 2일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(4월 4일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 총 복습및 문제풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초 &amp;
+네이버 회원가입 만들기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초 &amp;
+네이버 회원가입 만들기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(4월 5일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 반응형 레이아웃 제작을 배워보자.
+2. 넷플릭스와 쇼핑몰 사이트를 제작해보자.
+3. 프로그래밍언어 기초를 배워보자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. React를 위한 프로그래밍 기초
+2. Git
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">프론트 엔드3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(24.04.09 ~ 24.05.)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -931,13 +998,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1128,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,9 +1200,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,6 +1208,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,7 +1550,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,58 +1572,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="F2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -1529,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -1541,10 +1644,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -1568,30 +1671,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="47"/>
+      <c r="F6" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="K6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="K6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1641,32 +1744,32 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>63</v>
+      <c r="D8" s="39" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>77</v>
+      <c r="G8" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>82</v>
+      <c r="I8" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>49</v>
+      <c r="L8" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="38" t="s">
-        <v>49</v>
+      <c r="N8" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1674,92 +1777,92 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>81</v>
-      </c>
+      <c r="G9" s="64"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="40"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="F11" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="I11" s="45"/>
+      <c r="K11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="K11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1803,127 +1906,129 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>70</v>
+      <c r="B13" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>71</v>
+      <c r="D13" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="36" t="s">
-        <v>84</v>
+      <c r="G13" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>79</v>
+      <c r="I13" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="36" t="s">
-        <v>49</v>
+      <c r="L13" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="38" t="s">
-        <v>49</v>
+      <c r="N13" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="39"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="67"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="45"/>
+      <c r="F16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="K16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="K16" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -1967,66 +2072,68 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>67</v>
+      <c r="B18" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>62</v>
+      <c r="D18" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>60</v>
+      <c r="G18" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="38" t="s">
-        <v>47</v>
+      <c r="I18" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="54" t="s">
-        <v>54</v>
+      <c r="L18" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="M18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="38" t="s">
-        <v>52</v>
+      <c r="N19" s="39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2045,49 +2152,47 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="G20" s="38"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="56"/>
+      <c r="L20" s="57"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="F21" s="41" t="s">
+      <c r="D21" s="45"/>
+      <c r="F21" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="K21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="K21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2131,68 +2236,68 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>66</v>
+      <c r="B23" s="41" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>68</v>
+      <c r="D23" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>47</v>
+      <c r="G23" s="55" t="s">
+        <v>95</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="38" t="s">
-        <v>47</v>
+      <c r="I23" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="40"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="36" t="s">
-        <v>52</v>
+      <c r="L24" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="38" t="s">
-        <v>52</v>
+      <c r="N24" s="39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -2211,46 +2316,44 @@
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="G25" s="57"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="F26" s="41" t="s">
+      <c r="D26" s="45"/>
+      <c r="F26" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="K26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="44"/>
-      <c r="K26" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="43" t="s">
+      <c r="L26" s="59"/>
+      <c r="M26" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N26" s="60"/>
@@ -2297,68 +2400,68 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>73</v>
+      <c r="B28" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>74</v>
+      <c r="D28" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
-        <v>47</v>
+      <c r="G28" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="38" t="s">
-        <v>61</v>
+      <c r="I28" s="39" t="s">
+        <v>97</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
       <c r="N28" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="40"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="37"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="57"/>
+      <c r="I29" s="40"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="36" t="s">
-        <v>52</v>
+      <c r="L29" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="38" t="s">
-        <v>52</v>
+      <c r="N29" s="39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2378,12 +2481,14 @@
         <v>2</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="68" t="s">
+        <v>74</v>
+      </c>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
@@ -2393,29 +2498,28 @@
       </c>
       <c r="N30" s="61"/>
     </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="36"/>
+    </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="B33:D35"/>
+  <mergeCells count="64">
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="I28:I30"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="N29:N30"/>
@@ -2425,14 +2529,15 @@
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="N24:N25"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="K16:L16"/>
@@ -2440,10 +2545,9 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
     <mergeCell ref="L18:L20"/>
-    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
@@ -2475,9 +2579,9 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,58 +2619,58 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="K2" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>16</v>
@@ -2578,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
@@ -2590,7 +2694,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
@@ -2614,30 +2718,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="47"/>
+      <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="K6" s="41" t="s">
+      <c r="I6" s="47"/>
+      <c r="K6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2693,25 +2797,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="39" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="37" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2719,49 +2823,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>48</v>
+      <c r="B9" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>48</v>
+      <c r="D9" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="40"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="40"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2776,30 +2880,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="F11" s="41" t="s">
+      <c r="D11" s="45"/>
+      <c r="F11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="K11" s="41" t="s">
+      <c r="I11" s="45"/>
+      <c r="K11" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="44"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2867,13 +2971,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="37" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="39" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2881,14 +2985,14 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>48</v>
+      <c r="B14" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>48</v>
+      <c r="D14" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>1</v>
@@ -2905,21 +3009,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="46"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="57"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2935,37 +3039,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="45"/>
+      <c r="F16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="K16" s="41" t="s">
+      <c r="I16" s="45"/>
+      <c r="K16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3021,19 +3125,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="39" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="37" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3047,31 +3151,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="57"/>
+      <c r="I19" s="58"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="45"/>
+      <c r="L19" s="46"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="57" t="s">
+      <c r="N19" s="58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3079,53 +3183,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="40"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="39"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="F21" s="41" t="s">
+      <c r="D21" s="45"/>
+      <c r="F21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="K21" s="41" t="s">
+      <c r="I21" s="45"/>
+      <c r="K21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="43" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="44"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3181,25 +3285,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="37" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="37" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="39" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3207,80 +3311,80 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="57"/>
+      <c r="I24" s="58"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="45"/>
+      <c r="L24" s="46"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="57"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="F26" s="41" t="s">
+      <c r="D26" s="45"/>
+      <c r="F26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="K26" s="41" t="s">
+      <c r="I26" s="45"/>
+      <c r="K26" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="58"/>
-      <c r="M26" s="43" t="s">
+      <c r="L26" s="59"/>
+      <c r="M26" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N26" s="60"/>
@@ -3339,7 +3443,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="37" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3351,13 +3455,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="37" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="39" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3365,19 +3469,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3387,11 +3491,11 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="45"/>
+      <c r="L29" s="46"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="40"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C9DA7-5CAF-44EB-A2C4-B434D26354E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C4BCB-DDAE-4358-9947-BC7585E4AA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum1-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="102">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,14 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넷플릭스 만들기 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넷플릭스 만들기 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반응형 총 복습및 문제풀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 기초 &amp;
 네이버 회원가입 만들기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +518,13 @@
       <t>(24.04.09 ~ 24.05.)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 사이트 제작 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기초</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1126,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,92 +1150,77 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,10 +1539,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1572,55 +1564,55 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="F2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="K2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="G3" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="L3" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -1632,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>52</v>
@@ -1644,7 +1636,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>52</v>
@@ -1671,30 +1663,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="F6" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="K6" s="42" t="s">
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1744,31 +1736,31 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="43" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="63" t="s">
-        <v>85</v>
+      <c r="G8" s="66" t="s">
+        <v>83</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>76</v>
+      <c r="I8" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="41" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1782,23 +1774,23 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="44"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="56"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1817,13 +1809,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1839,30 +1831,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="F11" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="45"/>
-      <c r="K11" s="42" t="s">
+      <c r="D11" s="49"/>
+      <c r="F11" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1906,37 +1898,37 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="43" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="63" t="s">
-        <v>86</v>
+      <c r="G13" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="65" t="s">
-        <v>91</v>
+      <c r="I13" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="41" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="43" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1944,29 +1936,29 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="44"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="64"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="66" t="s">
+      <c r="I14" s="55" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="40"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1990,7 +1982,7 @@
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="56"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2005,30 +1997,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="F16" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="K16" s="42" t="s">
+      <c r="D16" s="49"/>
+      <c r="F16" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2072,31 +2064,31 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="65" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="43" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="41" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="51" t="s">
         <v>53</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -2110,29 +2102,29 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="44"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="56"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="39" t="s">
+      <c r="N19" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2152,47 +2144,47 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="57"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="40"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="F21" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="45"/>
-      <c r="K21" s="42" t="s">
+      <c r="D21" s="49"/>
+      <c r="F21" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="K21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="44" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2236,25 +2228,25 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="65" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="43" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>95</v>
+      <c r="G23" s="41" t="s">
+        <v>101</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="43" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2274,29 +2266,29 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="44"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="44"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="41" t="s">
         <v>51</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2316,7 +2308,9 @@
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="57"/>
+      <c r="G25" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
@@ -2326,37 +2320,37 @@
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="42"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="F26" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="45"/>
-      <c r="K26" s="42" t="s">
+      <c r="D26" s="49"/>
+      <c r="F26" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="60"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2400,26 +2394,26 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="43" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>96</v>
+      <c r="G28" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="39" t="s">
-        <v>97</v>
+      <c r="I28" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
@@ -2438,29 +2432,29 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="44"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="44"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="41" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="43" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2486,88 +2480,23 @@
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="38" t="s">
         <v>74</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="61"/>
+      <c r="N30" s="46"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C31" s="36"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-    </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="L13:L14"/>
@@ -2582,6 +2511,56 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2619,51 +2598,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="K2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2718,30 +2697,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="F6" s="42" t="s">
+      <c r="D6" s="57"/>
+      <c r="F6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="K6" s="42" t="s">
+      <c r="I6" s="57"/>
+      <c r="K6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="47"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2797,25 +2776,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="43" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="41" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="43" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2823,49 +2802,49 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="68"/>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="44"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="44"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2880,30 +2859,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="F11" s="42" t="s">
+      <c r="D11" s="49"/>
+      <c r="F11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
+      <c r="G11" s="48"/>
+      <c r="H11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="K11" s="42" t="s">
+      <c r="I11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="45"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2971,13 +2950,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="43" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2985,13 +2964,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -3009,21 +2988,21 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="46"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="58"/>
+      <c r="N14" s="68"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="44"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3039,37 +3018,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="42"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="F16" s="42" t="s">
+      <c r="D16" s="49"/>
+      <c r="F16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="K16" s="42" t="s">
+      <c r="I16" s="49"/>
+      <c r="K16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3125,19 +3104,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="41" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="41" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3151,31 +3130,31 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="58"/>
+      <c r="I19" s="68"/>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="46"/>
+      <c r="L19" s="54"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="68" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3183,53 +3162,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="44"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="44"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="38"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="40"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="F21" s="42" t="s">
+      <c r="D21" s="49"/>
+      <c r="F21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44" t="s">
+      <c r="G21" s="48"/>
+      <c r="H21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="K21" s="42" t="s">
+      <c r="I21" s="49"/>
+      <c r="K21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="44" t="s">
+      <c r="L21" s="50"/>
+      <c r="M21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="45"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3285,25 +3264,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="41" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="43" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="41" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3311,83 +3290,83 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="58"/>
+      <c r="I24" s="68"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="46"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="58"/>
+      <c r="N24" s="68"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="44"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="44"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="42"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="F26" s="42" t="s">
+      <c r="D26" s="49"/>
+      <c r="F26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44" t="s">
+      <c r="G26" s="48"/>
+      <c r="H26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="K26" s="42" t="s">
+      <c r="I26" s="49"/>
+      <c r="K26" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="44" t="s">
+      <c r="L26" s="50"/>
+      <c r="M26" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="60"/>
+      <c r="N26" s="40"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3443,7 +3422,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3455,13 +3434,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="41" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="43" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3469,19 +3448,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3491,25 +3470,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="46"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="40"/>
+      <c r="N29" s="44"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="46"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3519,7 +3498,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="62"/>
+      <c r="L30" s="45"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3529,6 +3508,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="B29:B30"/>
@@ -3545,53 +3571,6 @@
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
+++ b/강의계획표(프론트과정_평일)_현상원강사_0.1v.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CEO\Desktop\IT_KOREA_HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C4BCB-DDAE-4358-9947-BC7585E4AA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0D85D-EF4B-40DC-8763-417F5A2B9216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD66654A-5DAE-49BF-8CB0-B1827AC1716E}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculum1-3" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="104">
   <si>
     <t>19:00 ~ 19:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프론트 엔드1(24.02.06 ~ 24.03.07)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,18 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7회차(3월 28일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8회차(4월 2일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9회차(4월 4일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 기초 &amp;
 네이버 회원가입 만들기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,10 +463,6 @@
   <si>
     <t>Javascript 기초 &amp;
 네이버 회원가입 만들기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10회차(4월 5일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,6 +505,35 @@
   </si>
   <si>
     <t>Javascript 기초</t>
+  </si>
+  <si>
+    <t>Drop Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회차 복습
+가상선택자, Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 사이트 제작 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차(4월 2일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10회차(4월 8일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회차(4월 4일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회차(4월 5일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1132,92 +1141,92 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1542,7 +1551,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1564,55 +1573,55 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="L3" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -1624,7 +1633,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>52</v>
@@ -1636,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>52</v>
@@ -1663,30 +1672,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="52"/>
+      <c r="F6" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="52"/>
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1736,31 +1745,31 @@
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="66" t="s">
-        <v>83</v>
+      <c r="G8" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>84</v>
+      <c r="I8" s="28" t="s">
+        <v>98</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="39" t="s">
         <v>48</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1774,23 +1783,25 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="42"/>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="42"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -1809,13 +1820,13 @@
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>2</v>
@@ -1831,30 +1842,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="47"/>
+      <c r="F11" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="I11" s="47"/>
+      <c r="K11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="39" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="49"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -1898,37 +1909,35 @@
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="41" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="66" t="s">
-        <v>84</v>
-      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="39" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="41" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1936,29 +1945,31 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="42"/>
       <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="48" t="s">
         <v>73</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="42"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="44"/>
+      <c r="N14" s="42"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1982,7 +1993,7 @@
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="49"/>
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1997,30 +2008,30 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
+      <c r="D16" s="47"/>
+      <c r="F16" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="K16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="39" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="49"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -2064,31 +2075,31 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="60" t="s">
         <v>53</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -2102,29 +2113,29 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="42"/>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="52"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2144,47 +2155,47 @@
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="53"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
+      <c r="D21" s="47"/>
+      <c r="F21" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="K21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="39" t="s">
+      <c r="L21" s="64"/>
+      <c r="M21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -2228,25 +2239,25 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="41" t="s">
-        <v>101</v>
+      <c r="G23" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="41" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -2266,29 +2277,29 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="42"/>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="44"/>
+      <c r="I24" s="42"/>
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="39" t="s">
         <v>51</v>
       </c>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="43" t="s">
+      <c r="N24" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2320,37 +2331,37 @@
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="42"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
+      <c r="D26" s="47"/>
+      <c r="F26" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="47"/>
+      <c r="K26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="39" t="s">
+      <c r="L26" s="64"/>
+      <c r="M26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="40"/>
+      <c r="N26" s="65"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -2394,26 +2405,26 @@
       <c r="A28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="41" t="s">
-        <v>93</v>
+      <c r="G28" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="43" t="s">
-        <v>94</v>
+      <c r="I28" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>0</v>
@@ -2432,29 +2443,29 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="42"/>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="44"/>
+      <c r="I29" s="42"/>
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="39" t="s">
         <v>51</v>
       </c>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="43" t="s">
+      <c r="N29" s="41" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2486,39 +2497,47 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="66"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="46"/>
+      <c r="N30" s="67"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C31" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
+  <mergeCells count="62">
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
@@ -2531,36 +2550,26 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,51 +2607,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="K2" s="61" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="K2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
       <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2697,30 +2706,30 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="52"/>
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="52"/>
+      <c r="K6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48" t="s">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="57"/>
+      <c r="N6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -2776,25 +2785,25 @@
       <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="41" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="39" t="s">
         <v>31</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2802,19 +2811,19 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="3" t="s">
         <v>1</v>
       </c>
@@ -2822,29 +2831,29 @@
       <c r="K9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="42"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="44"/>
+      <c r="N9" s="42"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="42"/>
       <c r="F10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="42"/>
       <c r="K10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2859,30 +2868,30 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="47"/>
+      <c r="F11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="39" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="K11" s="47" t="s">
+      <c r="I11" s="47"/>
+      <c r="K11" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="39" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="49"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -2950,13 +2959,13 @@
       <c r="K13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="39" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2964,13 +2973,13 @@
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2988,7 +2997,7 @@
       <c r="K14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="3" t="s">
         <v>1</v>
       </c>
@@ -2998,11 +3007,11 @@
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="42"/>
       <c r="F15" s="10" t="s">
         <v>2</v>
       </c>
@@ -3018,37 +3027,37 @@
       <c r="K15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="42"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="47"/>
+      <c r="F16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="39" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="K16" s="47" t="s">
+      <c r="I16" s="47"/>
+      <c r="K16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="39" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="49"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -3104,19 +3113,19 @@
       <c r="F18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="29" t="s">
@@ -3130,19 +3139,19 @@
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="3" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3159,7 @@
       <c r="K19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="54"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="29" t="s">
         <v>1</v>
       </c>
@@ -3162,53 +3171,53 @@
       <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="42"/>
       <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="42"/>
       <c r="K20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="42"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="44"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="F21" s="47" t="s">
+      <c r="D21" s="47"/>
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="K21" s="47" t="s">
+      <c r="I21" s="47"/>
+      <c r="K21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="39" t="s">
+      <c r="L21" s="64"/>
+      <c r="M21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="49"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -3264,25 +3273,25 @@
       <c r="F23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="39" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="39" t="s">
         <v>36</v>
       </c>
       <c r="M23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3290,19 +3299,19 @@
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="54"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="3" t="s">
         <v>1</v>
       </c>
@@ -3310,7 +3319,7 @@
       <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="54"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="29" t="s">
         <v>1</v>
       </c>
@@ -3320,53 +3329,53 @@
       <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="42"/>
       <c r="F25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="42"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="42"/>
       <c r="K25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="42"/>
+      <c r="L25" s="40"/>
       <c r="M25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="44"/>
+      <c r="N25" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="F26" s="47" t="s">
+      <c r="D26" s="47"/>
+      <c r="F26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="39" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="K26" s="47" t="s">
+      <c r="I26" s="47"/>
+      <c r="K26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="39" t="s">
+      <c r="L26" s="64"/>
+      <c r="M26" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="40"/>
+      <c r="N26" s="65"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
@@ -3422,7 +3431,7 @@
       <c r="F28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3434,13 +3443,13 @@
       <c r="K28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="39" t="s">
         <v>36</v>
       </c>
       <c r="M28" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N28" s="43" t="s">
+      <c r="N28" s="41" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3448,19 +3457,19 @@
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="41" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="3" t="s">
         <v>1</v>
       </c>
@@ -3470,25 +3479,25 @@
       <c r="K29" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L29" s="54"/>
+      <c r="L29" s="63"/>
       <c r="M29" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="44"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="67"/>
       <c r="F30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="12" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3507,7 @@
       <c r="K30" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L30" s="45"/>
+      <c r="L30" s="66"/>
       <c r="M30" s="30" t="s">
         <v>2</v>
       </c>
@@ -3508,21 +3517,38 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K6:L6"/>
@@ -3539,38 +3565,21 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="I8:I10"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
